--- a/10-mergefullAB/srv-de-para.xlsx
+++ b/10-mergefullAB/srv-de-para.xlsx
@@ -11,7 +11,8 @@
     <sheet name="Servidores" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Servidores!$B$7:$I$22</definedName>
+    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Servidores!$B$7:$I$25</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Servidores!$B$7:$I$22</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">#REF!</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -168,10 +169,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -202,12 +202,14 @@
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -215,6 +217,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -358,11 +361,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -370,11 +373,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -382,11 +385,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -468,13 +471,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A2:J26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F30" activeCellId="0" sqref="F30"/>
+      <selection pane="topLeft" activeCell="J26" activeCellId="0" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -486,7 +489,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="12.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="8.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="10.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="7.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="994" min="10" style="1" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="995" style="1" width="9.14"/>
@@ -557,8 +560,11 @@
       <c r="I8" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J8" s="1" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6" t="n">
         <f aca="false">A8+1</f>
         <v>2</v>
@@ -588,7 +594,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="n">
         <f aca="false">A9+1</f>
         <v>3</v>
@@ -646,6 +652,9 @@
       </c>
       <c r="I11" s="8" t="s">
         <v>15</v>
+      </c>
+      <c r="J11" s="1" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -677,6 +686,9 @@
       <c r="I12" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="J12" s="1" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6" t="n">
@@ -707,8 +719,11 @@
       <c r="I13" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J13" s="1" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="3" t="n">
         <f aca="false">A13+1</f>
         <v>5</v>
@@ -738,7 +753,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
         <f aca="false">A14+1</f>
         <v>6</v>
@@ -797,6 +812,9 @@
       <c r="I16" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="J16" s="1" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6" t="n">
@@ -827,6 +845,9 @@
       <c r="I17" s="8" t="s">
         <v>15</v>
       </c>
+      <c r="J17" s="1" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="3" t="n">
@@ -857,6 +878,9 @@
       <c r="I18" s="5" t="s">
         <v>15</v>
       </c>
+      <c r="J18" s="1" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6" t="n">
@@ -887,8 +911,11 @@
       <c r="I19" s="8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J19" s="1" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="3" t="n">
         <f aca="false">A19+1</f>
         <v>11</v>
@@ -918,7 +945,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="n">
         <f aca="false">A20+1</f>
         <v>12</v>
@@ -948,7 +975,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="3" t="n">
         <f aca="false">A21+1</f>
         <v>13</v>
@@ -978,7 +1005,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6" t="n">
         <f aca="false">A22+1</f>
         <v>14</v>
@@ -1037,8 +1064,11 @@
       <c r="I24" s="5" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J24" s="1" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6" t="n">
         <f aca="false">A24+1</f>
         <v>16</v>
@@ -1080,7 +1110,13 @@
       <c r="I26" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="B7:I22"/>
+  <autoFilter ref="B7:I25">
+    <filterColumn colId="7">
+      <customFilters and="true">
+        <customFilter operator="equal" val="Comum"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.511805555555555" right="0.511805555555555" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
